--- a/Team-Data/2011-12/4-17-2011-12.xlsx
+++ b/Team-Data/2011-12/4-17-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -789,19 +856,19 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.581</v>
+        <v>0.59</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,37 +933,37 @@
         <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.779</v>
       </c>
       <c r="R3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="U3" t="n">
         <v>23.8</v>
@@ -908,37 +975,37 @@
         <v>7.3</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -959,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -971,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,16 +1053,16 @@
         <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1156,10 +1223,10 @@
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1344,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
         <v>6.8</v>
@@ -1430,7 +1497,7 @@
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.718</v>
@@ -1439,13 +1506,13 @@
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
         <v>15.5</v>
@@ -1457,22 +1524,22 @@
         <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.7</v>
+        <v>-6.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1496,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
@@ -1517,16 +1584,16 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1547,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="BC6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1672,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1857,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1890,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.377</v>
+        <v>0.367</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
@@ -1979,52 +2046,52 @@
         <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T9" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
         <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.8</v>
+        <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -2039,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2057,10 +2124,10 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>28</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -2260,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2418,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2451,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.645</v>
+        <v>0.639</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J12" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M12" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0.784</v>
@@ -2531,19 +2598,19 @@
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V12" t="n">
         <v>14.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
@@ -2555,7 +2622,7 @@
         <v>21.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
         <v>97.3</v>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,16 +2643,16 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2618,13 +2685,13 @@
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2782,13 +2849,13 @@
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2809,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
@@ -2877,34 +2944,34 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
         <v>12</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T14" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W14" t="n">
         <v>5.8</v>
@@ -2922,22 +2989,22 @@
         <v>20.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
@@ -2952,13 +3019,13 @@
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>11</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -3003,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.59</v>
+        <v>0.583</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J15" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.446</v>
@@ -3065,19 +3132,19 @@
         <v>0.329</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
         <v>42.2</v>
@@ -3098,28 +3165,28 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3146,16 +3213,16 @@
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3164,13 +3231,13 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
@@ -3179,7 +3246,7 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
@@ -3337,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3608,31 +3675,31 @@
         <v>21.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P18" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
         <v>6.8</v>
@@ -3644,13 +3711,13 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA18" t="n">
         <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-1.9</v>
@@ -3692,19 +3759,19 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3719,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3907,13 +3974,13 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4053,7 +4120,7 @@
         <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4124,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
         <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.329</v>
+        <v>0.323</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R21" t="n">
         <v>11.5</v>
       </c>
       <c r="S21" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
         <v>16.3</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -4220,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ21" t="n">
         <v>20</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4405,7 +4472,7 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4578,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4602,7 +4669,7 @@
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.508</v>
+        <v>0.517</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.448</v>
@@ -4700,25 +4767,25 @@
         <v>14.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="P24" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S24" t="n">
         <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
@@ -4727,7 +4794,7 @@
         <v>11.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4739,28 +4806,28 @@
         <v>17.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
         <v>93.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>10</v>
@@ -4787,10 +4854,10 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
@@ -4805,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX24" t="n">
         <v>13</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4948,10 +5015,10 @@
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4981,7 +5048,7 @@
         <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4999,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5148,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,13 +5236,13 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX26" t="n">
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5366,10 +5433,10 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J28" t="n">
         <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
         <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R28" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S28" t="n">
         <v>32.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
@@ -5467,19 +5534,19 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5497,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5512,13 +5579,13 @@
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
@@ -5527,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5703,7 +5770,7 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5888,7 +5955,7 @@
         <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6046,7 +6113,7 @@
         <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
@@ -6064,10 +6131,10 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6088,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6097,7 +6164,7 @@
         <v>25</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-17-2011-12</t>
+          <t>2012-04-17</t>
         </is>
       </c>
     </row>
